--- a/static/output.xlsx
+++ b/static/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
   <si>
     <t>Total</t>
   </si>
@@ -407,7 +407,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -454,8 +454,8 @@
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>6</v>
+      <c r="A3">
+        <v>170</v>
       </c>
       <c r="B3" t="s">
         <v>7</v>
@@ -470,6 +470,46 @@
         <v>10</v>
       </c>
       <c r="F3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>170</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
         <v>11</v>
       </c>
     </row>
